--- a/SQL/SQL評量_正規化題目.xlsx 的副本.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx 的副本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3DAF8-305A-4878-9A60-B3E8734F34FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E8301-DE30-4345-9BDA-768F490C4CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="216">
   <si>
     <r>
       <rPr>
@@ -840,10 +840,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里辦公室</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1015,55 +1011,647 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣苗栗市米市街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市光復路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市大同路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市民族里和平路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市忠孝忠孝一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>116</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>353</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>194</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-472735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一正規化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PK</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別-class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量 people</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅類型house</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里資料country info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室 country office</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話 country office tel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局 office</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮中埔街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮和平街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮龍山路三段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣後龍鎮中華路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市米市街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1073,7 +1661,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1082,7 +1670,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1095,7 +1683,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1105,7 +1693,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1114,7 +1702,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1127,7 +1715,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1137,7 +1725,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1146,7 +1734,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1159,7 +1747,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1169,7 +1757,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1178,7 +1766,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1191,7 +1779,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1201,7 +1789,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1210,7 +1798,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1223,7 +1811,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1233,7 +1821,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1242,7 +1830,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1255,7 +1843,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1265,7 +1853,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1274,7 +1862,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1284,14 +1872,210 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>容人數量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(8,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(13,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室資料country info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>office add</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_nm</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮民族街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南分局</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗分局</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頭份分局</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地下樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>basement</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公寓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮中埔街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1299,8 +2083,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1311,12 +2094,51 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大樓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮和平街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>3142</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1327,12 +2149,80 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮龍山路三段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公共設施</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣後龍鎮中華路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>26</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1344,8 +2234,36 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市博愛街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1353,8 +2271,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1365,12 +2282,69 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市大同路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市民族里和平路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>353</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1382,8 +2356,47 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私營單位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市忠孝忠孝一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1391,8 +2404,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1404,8 +2416,36 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1413,8 +2453,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1426,8 +2465,36 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>116</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1435,8 +2502,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -1446,39 +2512,553 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里辦公室電話</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P8</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大埔里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮竹南里中山路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 103 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>山佳里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮山佳里國光街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>埔頂里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後龍鎮埔頂里中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>136-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>綠苗里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗市綠苗里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 766 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民族里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民族里民族路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝里光大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信義里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信義里信義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>巷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>聯絡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>office-tel</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市金鳳街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 766 3004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市光復路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市米市街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2038人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮公義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1486,69 +3066,141 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第一正規化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辦公室資料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣苗栗市光復路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里資料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號PK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <t>037-616072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> office code(PK)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NVARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(100)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號(PK)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別代號(FK)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>避難設施資料EVACUATION _FACILITY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>避難設施地址-FACILITYadd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
@@ -1558,182 +3210,80 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PK</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別-class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>村里別代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-country-nm</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室-country-office</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>村里辦公室電話</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-country-tel</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施地址-country-add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地下樓層數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>basement</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>容人數量 people</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>管轄分局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>office</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分局電話</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>office-tel</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>轄管分局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>office</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分局地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>office add</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> country_code</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>counrtry_add</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話country_tel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>country_nm</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1742,7 +3292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1792,8 +3342,106 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,18 +3474,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1882,37 +3548,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,9 +3591,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1961,43 +3600,112 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2012,8 +3720,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2331,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22:X24"/>
+    <sheetView tabSelected="1" topLeftCell="V20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2352,53 +4063,56 @@
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="A1" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -2416,23 +4130,23 @@
       <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>103</v>
+      <c r="T2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>5</v>
@@ -2454,25 +4168,25 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="21">
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2490,23 +4204,23 @@
       <c r="O3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>104</v>
+      <c r="R3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="V3" s="8">
         <v>1</v>
@@ -2528,25 +4242,25 @@
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="21">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2564,23 +4278,23 @@
       <c r="O4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>92</v>
+      <c r="R4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V4" s="8">
         <v>1</v>
@@ -2602,25 +4316,25 @@
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="F5" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="24">
         <v>1072</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="21">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -2638,22 +4352,22 @@
       <c r="O5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="15">
+      <c r="R5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="14">
         <v>1072</v>
       </c>
       <c r="V5" s="8">
@@ -2676,25 +4390,25 @@
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="F6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="24">
         <v>32</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="21">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -2712,22 +4426,22 @@
       <c r="O6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="15">
+      <c r="R6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="14">
         <v>32</v>
       </c>
       <c r="V6" s="8">
@@ -2750,25 +4464,25 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="21">
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -2786,23 +4500,23 @@
       <c r="O7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>117</v>
+      <c r="R7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V7" s="8">
         <v>1</v>
@@ -2824,25 +4538,25 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -2860,23 +4574,23 @@
       <c r="O8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>117</v>
+      <c r="R8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V8" s="8">
         <v>1</v>
@@ -2898,25 +4612,25 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="F9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="21">
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -2934,23 +4648,23 @@
       <c r="O9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>117</v>
+      <c r="R9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V9" s="8">
         <v>2</v>
@@ -2972,25 +4686,25 @@
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="21">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -3008,23 +4722,23 @@
       <c r="O10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>117</v>
+      <c r="R10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V10" s="8">
         <v>2</v>
@@ -3046,25 +4760,25 @@
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="21">
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -3082,23 +4796,23 @@
       <c r="O11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>99</v>
+      <c r="R11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V11" s="8">
         <v>1</v>
@@ -3120,25 +4834,25 @@
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="F12" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="21">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -3156,23 +4870,23 @@
       <c r="O12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>109</v>
+      <c r="R12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="V12" s="8">
         <v>1</v>
@@ -3194,25 +4908,25 @@
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="F13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="21">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -3230,23 +4944,23 @@
       <c r="O13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>110</v>
+      <c r="R13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="V13" s="8">
         <v>1</v>
@@ -3268,25 +4982,25 @@
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="F14" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="21">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -3304,23 +5018,23 @@
       <c r="O14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>111</v>
+      <c r="R14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="V14" s="8">
         <v>1</v>
@@ -3338,11 +5052,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="52"/>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3351,7 +5065,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:26" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -3365,53 +5079,57 @@
         <v>18</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="O19" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="30"/>
-      <c r="R19" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="29"/>
-      <c r="U19" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
+      <c r="O19" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="52"/>
+      <c r="R19" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="51"/>
+      <c r="U19" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:26" ht="19.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="O20" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>140</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="U20" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="V20" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="W20" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:26" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -3426,31 +5144,33 @@
       </c>
       <c r="F21" s="1"/>
       <c r="O21" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="W21" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:26" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -3465,31 +5185,33 @@
       </c>
       <c r="F22" s="1"/>
       <c r="O22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="V22" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="W22" s="33" t="s">
+      <c r="V22" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="W22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="X22" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="X22" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:26" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -3497,31 +5219,33 @@
         <v>28</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="U23" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="U23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="V23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="W23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="33" t="s">
-        <v>38</v>
-      </c>
+      <c r="X23" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:26" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -3542,31 +5266,33 @@
         <v>9</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U24" s="33" t="s">
+      <c r="U24" s="34" t="s">
         <v>45</v>
       </c>
       <c r="V24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="X24" s="33" t="s">
-        <v>46</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="W24" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:26" ht="19.5">
       <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
@@ -3581,19 +5307,25 @@
         <v>18</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:26" ht="19.5">
       <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
@@ -3608,19 +5340,25 @@
         <v>40</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:26" ht="19.5">
       <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3635,56 +5373,80 @@
         <v>48</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:26" ht="19.5">
       <c r="O28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:26" ht="19.5">
       <c r="O29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>56</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
     </row>
-    <row r="30" spans="1:28">
-      <c r="D30" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+    <row r="30" spans="1:26" ht="19.5">
+      <c r="D30" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:26" ht="19.5">
       <c r="D31" s="4" t="s">
         <v>58</v>
       </c>
@@ -3698,8 +5460,14 @@
       <c r="H31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:26" ht="19.5">
       <c r="D32" s="4" t="s">
         <v>68</v>
       </c>
@@ -3713,69 +5481,67 @@
       <c r="H32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="P32" s="30"/>
-      <c r="R32" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="S32" s="29"/>
-      <c r="U32" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="27"/>
+      <c r="O32" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" s="52"/>
+      <c r="R32" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S32" s="51"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
     </row>
-    <row r="33" spans="4:28">
+    <row r="33" spans="4:28" ht="19.5">
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="O33" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="S33" s="4" t="s">
+      <c r="R33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="V33" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="W33" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA33" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB33" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="T33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U33" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="W33" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="X33" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y33" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z33" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
     </row>
-    <row r="34" spans="4:28">
+    <row r="34" spans="4:28" ht="18.75">
       <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
@@ -3790,43 +5556,42 @@
         <v>70</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="W34" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="X34" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z34" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
     </row>
-    <row r="35" spans="4:28">
+    <row r="35" spans="4:28" ht="18.75">
       <c r="D35" s="4" t="s">
         <v>45</v>
       </c>
@@ -3849,35 +5614,34 @@
       <c r="R35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="S35" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V35" s="4" t="s">
+      <c r="T35" s="46">
+        <v>1</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="V35" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="W35" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="X35" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z35" s="22">
-        <v>100</v>
-      </c>
-      <c r="AA35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
     </row>
-    <row r="36" spans="4:28">
+    <row r="36" spans="4:28" ht="18.75">
       <c r="O36" s="3" t="s">
         <v>61</v>
       </c>
@@ -3887,35 +5651,34 @@
       <c r="R36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V36" s="4" t="s">
+      <c r="T36" s="46">
+        <v>2</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="V36" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="W36" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="X36" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y36" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z36" s="18">
-        <v>3142</v>
-      </c>
-      <c r="AA36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
     </row>
-    <row r="37" spans="4:28">
+    <row r="37" spans="4:28" ht="18.75">
       <c r="O37" s="3" t="s">
         <v>62</v>
       </c>
@@ -3925,35 +5688,34 @@
       <c r="R37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V37" s="4" t="s">
+      <c r="T37" s="46">
+        <v>3</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="V37" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="W37" s="40">
+        <v>1072</v>
+      </c>
+      <c r="X37" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z37" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="W37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y37" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z37" s="18">
-        <v>1072</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
     </row>
-    <row r="38" spans="4:28">
+    <row r="38" spans="4:28" ht="18.75">
       <c r="O38" s="3" t="s">
         <v>63</v>
       </c>
@@ -3963,225 +5725,447 @@
       <c r="R38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V38" s="4" t="s">
+      <c r="T38" s="46">
+        <v>4</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="V38" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="W38" s="40">
+        <v>32</v>
+      </c>
+      <c r="X38" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="W38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y38" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z38" s="18">
-        <v>32</v>
-      </c>
-      <c r="AA38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
     </row>
-    <row r="39" spans="4:28">
+    <row r="39" spans="4:28" ht="18.75">
       <c r="R39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="S39" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V39" s="4" t="s">
+      <c r="T39" s="46">
+        <v>5</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="V39" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="W39" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="X39" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="W39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y39" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z39" s="23">
-        <v>26</v>
-      </c>
-      <c r="AA39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
     </row>
-    <row r="40" spans="4:28">
+    <row r="40" spans="4:28" ht="18.75">
       <c r="R40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V40" s="4" t="s">
+      <c r="T40" s="46">
+        <v>6</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="V40" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="W40" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="X40" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z40" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="W40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y40" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z40" s="24">
-        <v>128</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
     </row>
-    <row r="41" spans="4:28">
+    <row r="41" spans="4:28" ht="18.75">
       <c r="R41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="S41" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y41" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z41" s="18">
-        <v>353</v>
-      </c>
-      <c r="AA41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="T41" s="46">
+        <v>7</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="V41" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="W41" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="X41" s="38">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z41" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
     </row>
-    <row r="42" spans="4:28">
+    <row r="42" spans="4:28" ht="18.75">
       <c r="R42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="S42" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V42" s="4" t="s">
+      <c r="T42" s="46">
+        <v>8</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="V42" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="W42" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="X42" s="38">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z42" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+    </row>
+    <row r="43" spans="4:28" ht="18.75">
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="46">
+        <v>9</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="V43" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="W43" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="X43" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z43" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+    </row>
+    <row r="44" spans="4:28" ht="18.75">
+      <c r="T44" s="46">
+        <v>10</v>
+      </c>
+      <c r="U44" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="V44" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="W44" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="X44" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z44" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y42" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z42" s="22">
-        <v>501</v>
-      </c>
-      <c r="AA42" s="4">
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+    </row>
+    <row r="45" spans="4:28" ht="18.75">
+      <c r="T45" s="46">
+        <v>11</v>
+      </c>
+      <c r="U45" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="V45" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="W45" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="X45" s="38">
         <v>1</v>
       </c>
-      <c r="AB42" s="5" t="s">
+      <c r="Y45" s="38" t="s">
         <v>45</v>
       </c>
+      <c r="Z45" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="43" spans="4:28">
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="U43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V43" s="4" t="s">
+    <row r="46" spans="4:28" ht="18.75">
+      <c r="T46" s="46">
+        <v>12</v>
+      </c>
+      <c r="U46" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="V46" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="W46" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="X46" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z46" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y43" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z43" s="22">
-        <v>194</v>
-      </c>
-      <c r="AA43" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="44" spans="4:28">
-      <c r="U44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V44" s="4" t="s">
+    <row r="47" spans="4:28" ht="19.5">
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+    </row>
+    <row r="48" spans="4:28" ht="19.5">
+      <c r="U48" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+    </row>
+    <row r="49" spans="17:26" ht="19.5">
+      <c r="U49" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="V49" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="W49" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="X49" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+    </row>
+    <row r="50" spans="17:26" ht="19.5">
+      <c r="U50" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="W50" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="X50" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+    </row>
+    <row r="51" spans="17:26" ht="19.5">
+      <c r="U51" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="W51" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="X51" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+    </row>
+    <row r="52" spans="17:26" ht="19.5">
+      <c r="U52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="W52" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="X52" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+    </row>
+    <row r="53" spans="17:26" ht="19.5">
+      <c r="U53" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="V53" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="W53" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="X53" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+    </row>
+    <row r="54" spans="17:26" ht="19.5">
+      <c r="U54" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V54" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="W54" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="X54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+    </row>
+    <row r="55" spans="17:26" ht="19.5">
+      <c r="U55" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="V55" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="W55" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="X55" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+    </row>
+    <row r="56" spans="17:26" ht="19.5">
+      <c r="U56" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="V56" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="W56" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="X56" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+    </row>
+    <row r="57" spans="17:26" ht="19.5">
+      <c r="U57" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="V57" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="W57" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="X57" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+    </row>
+    <row r="58" spans="17:26" ht="19.5">
+      <c r="U58" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="W44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y44" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z44" s="22">
-        <v>78</v>
-      </c>
-      <c r="AA44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="V58" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="W58" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="X58" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
     </row>
-    <row r="62" spans="17:17">
-      <c r="Q62" s="21"/>
+    <row r="62" spans="17:26">
+      <c r="Q62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
     </row>
-    <row r="63" spans="17:17">
-      <c r="Q63" s="21"/>
+    <row r="63" spans="17:26">
+      <c r="Q63" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="U32:AB32"/>
+  <mergeCells count="10">
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="U32:Z32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="A18:B18"/>

--- a/SQL/SQL評量_正規化題目.xlsx 的副本.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx 的副本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E8301-DE30-4345-9BDA-768F490C4CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288737D-2C54-4FAB-9122-D33EEBA7915B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3182,10 +3182,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>流水號(PK)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>村里別代號(FK)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3285,6 +3281,10 @@
       </rPr>
       <t>country_nm</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施_x0010_編號(PK)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4042,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32:Z32"/>
+    <sheetView tabSelected="1" topLeftCell="L17" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5491,7 +5491,7 @@
       <c r="S32" s="51"/>
       <c r="T32" s="47"/>
       <c r="U32" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V32" s="49"/>
       <c r="W32" s="49"/>
@@ -5518,13 +5518,13 @@
         <v>2</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="U33" s="35" t="s">
         <v>124</v>
       </c>
       <c r="V33" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W33" s="36" t="s">
         <v>125</v>
@@ -5536,7 +5536,7 @@
         <v>207</v>
       </c>
       <c r="Z33" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA33" s="31"/>
       <c r="AB33" s="31"/>
@@ -5994,16 +5994,16 @@
     </row>
     <row r="49" spans="17:26" ht="19.5">
       <c r="U49" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="V49" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="W49" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="V49" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="W49" s="43" t="s">
+      <c r="X49" s="44" t="s">
         <v>213</v>
-      </c>
-      <c r="X49" s="44" t="s">
-        <v>214</v>
       </c>
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
